--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -23642,208 +23642,208 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="n">
+      <c r="A447" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B447" t="inlineStr">
+      <c r="B447" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr">
+      <c r="C447" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E447" t="inlineStr">
+      <c r="E447" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G447" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" t="b">
-        <v>1</v>
-      </c>
-      <c r="J447" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K447" t="b">
-        <v>1</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F447" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G447" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J447" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K447" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L447" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="n">
+      <c r="A448" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B448" t="inlineStr">
+      <c r="B448" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr">
+      <c r="C448" s="2" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G448" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" t="b">
-        <v>1</v>
-      </c>
-      <c r="J448" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K448" t="b">
-        <v>1</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D448" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G448" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J448" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K448" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L448" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="n">
+      <c r="A449" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B449" t="inlineStr">
+      <c r="B449" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr">
+      <c r="C449" s="2" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" t="n">
+      <c r="D449" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" t="b">
-        <v>1</v>
-      </c>
-      <c r="J449" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K449" t="b">
-        <v>1</v>
-      </c>
-      <c r="L449" t="inlineStr">
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J449" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K449" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L449" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="n">
+      <c r="A450" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B450" t="inlineStr">
+      <c r="B450" s="2" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
+      <c r="C450" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" t="n">
+      <c r="D450" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E450" t="inlineStr">
+      <c r="E450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" t="inlineStr">
+      <c r="F450" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G450" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K450" t="b">
-        <v>1</v>
-      </c>
-      <c r="L450" t="inlineStr">
+      <c r="G450" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J450" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K450" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L450" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/123/word_level_predictions_123.xlsx
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
+      <c r="F343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -23642,208 +23642,208 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="2" t="n">
+      <c r="A447" t="n">
         <v>41</v>
       </c>
-      <c r="B447" s="2" t="inlineStr">
+      <c r="B447" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C447" s="2" t="inlineStr">
+      <c r="C447" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D447" s="2" t="n">
+      <c r="D447" t="n">
         <v>0</v>
       </c>
-      <c r="E447" s="2" t="inlineStr">
+      <c r="E447" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H447" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J447" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="2" t="n">
+      <c r="A448" t="n">
         <v>41</v>
       </c>
-      <c r="B448" s="2" t="inlineStr">
+      <c r="B448" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C448" s="2" t="inlineStr">
+      <c r="C448" t="inlineStr">
         <is>
           <t>Less</t>
         </is>
       </c>
-      <c r="D448" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E448" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F448" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G448" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H448" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J448" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K448" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L448" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G448" t="b">
+        <v>1</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I448" t="b">
+        <v>1</v>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K448" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="2" t="n">
+      <c r="A449" t="n">
         <v>41</v>
       </c>
-      <c r="B449" s="2" t="inlineStr">
+      <c r="B449" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C449" s="2" t="inlineStr">
+      <c r="C449" t="inlineStr">
         <is>
           <t>than</t>
         </is>
       </c>
-      <c r="D449" s="2" t="n">
+      <c r="D449" t="n">
         <v>2</v>
       </c>
-      <c r="E449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F449" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G449" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H449" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J449" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K449" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L449" s="2" t="inlineStr">
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G449" t="b">
+        <v>1</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I449" t="b">
+        <v>1</v>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K449" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="2" t="n">
+      <c r="A450" t="n">
         <v>41</v>
       </c>
-      <c r="B450" s="2" t="inlineStr">
+      <c r="B450" t="inlineStr">
         <is>
           <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C450" s="2" t="inlineStr">
+      <c r="C450" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D450" s="2" t="n">
+      <c r="D450" t="n">
         <v>3</v>
       </c>
-      <c r="E450" s="2" t="inlineStr">
+      <c r="E450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F450" s="2" t="inlineStr">
+      <c r="F450" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G450" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H450" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J450" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K450" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L450" s="2" t="inlineStr">
+      <c r="G450" t="b">
+        <v>1</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I450" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K450" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
